--- a/biology/Zoologie/Christian_Hee_Hwass/Christian_Hee_Hwass.xlsx
+++ b/biology/Zoologie/Christian_Hee_Hwass/Christian_Hee_Hwass.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Hee Hwass est un conchyliologiste  danois, né en 1731 et mort en 1803.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la tête d’une riche fortune, la collection de coquillages de Hwass était réputée. Il passe l’essentiel de sa vie en France, d’abord à Paris à partir de 1780, puis à Auteuil à partir de 1794.
 Sa collection lui sert de base à une importante monographie qui paraît dans l’Encyclopédie méthodique en 1792. Bien que Hwass en soit le véritable auteur, on attribue généralement cette publication à Jean-Guillaume Bruguière (1750-1798), un ami proche de Hwass.
@@ -544,7 +558,9 @@
           <t>Espèces de Conus étudiées par Hwass</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Conus abbas, sous le nom de Cylinder abbas
 Conus arenatus, sous le nom de Puncticulis arenatus
